--- a/Capstone Codes/Data/Work Week Calendar.xlsx
+++ b/Capstone Codes/Data/Work Week Calendar.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliciteo\Documents\Priority_List\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lidaseow/Desktop/BT4103/AMD /BT4103Code/Capstone Codes/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7064DE3A-C202-4691-B138-F0F672EFCAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345E1D8F-3B29-B547-950D-8088FCF42019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28880" windowHeight="15160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Start Week" sheetId="1" r:id="rId1"/>
+    <sheet name="Plant Shutdown Dates" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Year</t>
   </si>
@@ -64,13 +65,22 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>Please input the plant shutdown dates in the following format YYYY-MM-DD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +90,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,9 +131,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,13 +423,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -486,7 +511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -527,7 +552,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -568,7 +593,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -609,7 +634,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -650,7 +675,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -691,7 +716,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -732,7 +757,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -780,4 +805,52 @@
     <oddHeader>&amp;L&amp;"Arial"&amp;10&amp;K0000FF[AMD Official Use Only - General]&amp;1#</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8635E8CB-CFF7-8A4A-920A-274D666EA79F}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>44866</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>